--- a/lib/jobs/madeup_h2o2_st_idt.xlsx
+++ b/lib/jobs/madeup_h2o2_st_idt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4EC865-10DB-9C45-A827-8FD11CFFA688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C8DBD-F4FD-E34E-924C-9AF0680D8FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9340" yWindow="2660" windowWidth="15520" windowHeight="14420" xr2:uid="{E67FD926-F6F9-4D40-89D7-F9619D8CC074}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>mech_names</t>
   </si>
   <si>
-    <t>sens</t>
-  </si>
-  <si>
     <t>hong_h2o2.cti</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>madeup_h2o2_st_idt.xlsx</t>
+  </si>
+  <si>
+    <t>outcome</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
